--- a/src/test/resources/case/updbaseinfo.xlsx
+++ b/src/test/resources/case/updbaseinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,15 +154,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>updbaseinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18612819427</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1502865588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/expected/enterpriseInfo.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -697,8 +717,8 @@
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5">
-        <v>4</v>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -710,22 +730,22 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5">
-        <v>6</v>
-      </c>
-      <c r="I2" s="5">
-        <v>4</v>
+      <c r="H2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="5">
-        <v>0</v>
+      <c r="K2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>17</v>
@@ -734,11 +754,11 @@
         <v>18</v>
       </c>
       <c r="N2" s="5"/>
-      <c r="O2" s="5">
-        <v>2</v>
+      <c r="O2" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="5"/>
     </row>
@@ -753,14 +773,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -773,7 +793,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
